--- a/capitalism/2020_Bloomberg_Innovation_Index.xlsx
+++ b/capitalism/2020_Bloomberg_Innovation_Index.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anoushka/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrietbrookesgray/Dropbox/My Mac (Harriets-Air.fios-router.home)/Documents/GitHub/bfh-textbook/capitalism/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124B9D50-B2A1-2C45-A3F6-13DB726AC0D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -91,9 +92,6 @@
     <t>Denmark</t>
   </si>
   <si>
-    <t>U.S.</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
     <t>Norway</t>
   </si>
   <si>
-    <t>U.K.</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -131,12 +126,18 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>UK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
@@ -181,6 +182,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -448,11 +452,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,7 +814,7 @@
         <v>-1</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1">
         <v>83.17</v>
@@ -848,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="1">
         <v>82.75</v>
@@ -886,7 +890,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1">
         <v>82.4</v>
@@ -924,7 +928,7 @@
         <v>-3</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1">
         <v>82.31</v>
@@ -962,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1">
         <v>81.28</v>
@@ -1000,7 +1004,7 @@
         <v>-1</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="1">
         <v>79.930000000000007</v>
@@ -1038,7 +1042,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
         <v>78.8</v>
@@ -1076,7 +1080,7 @@
         <v>-2</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1">
         <v>78.650000000000006</v>
@@ -1114,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1">
         <v>76.930000000000007</v>
@@ -1152,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1">
         <v>76.03</v>
@@ -1190,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1">
         <v>75.760000000000005</v>
@@ -1228,7 +1232,7 @@
         <v>-1</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1">
         <v>74.13</v>
@@ -1266,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="1">
         <v>73.930000000000007</v>
@@ -1304,7 +1308,7 @@
         <v>-2</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" s="1">
         <v>73.11</v>
@@ -1337,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1349,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
